--- a/ResultadoEleicoesDistritos/VISEU_SERNANCELHE.xlsx
+++ b/ResultadoEleicoesDistritos/VISEU_SERNANCELHE.xlsx
@@ -597,31 +597,31 @@
         <v>1513</v>
       </c>
       <c r="H2" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J2" t="n">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -630,31 +630,31 @@
         <v>11</v>
       </c>
       <c r="S2" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="T2" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>952</v>
+        <v>937</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA2" t="n">
         <v>7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
